--- a/ME345W/Lab9/Experimental_Table_Report.xlsx
+++ b/ME345W/Lab9/Experimental_Table_Report.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F23"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -527,7 +527,7 @@
         <v>0.1714</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0.1154</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
@@ -567,7 +567,7 @@
         <v>0.0594</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
